--- a/Libros/odmCSV.xlsx
+++ b/Libros/odmCSV.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="3_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -65,88 +65,7 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>Población con gastos inferiores a la línea de pobreza extrema en los departamentos</t>
-  </si>
-  <si>
-    <t>Proporción de la población que se encuentra por debajo de la línea de pobreza extrema por departamento</t>
-  </si>
-  <si>
-    <t>Encovi 2014, en porcentaje</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>El Progreso</t>
-  </si>
-  <si>
-    <t>Sacatepéquez</t>
-  </si>
-  <si>
-    <t>Chimaltenango</t>
-  </si>
-  <si>
-    <t>Escuintla</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Sololá</t>
-  </si>
-  <si>
-    <t>Totonicapán</t>
-  </si>
-  <si>
-    <t>Quetzaltenango</t>
-  </si>
-  <si>
-    <t>Suchitepéquez</t>
-  </si>
-  <si>
-    <t>Retalhuleu</t>
-  </si>
-  <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
-    <t>Huehuetenango</t>
-  </si>
-  <si>
-    <t>Quiché</t>
-  </si>
-  <si>
-    <t>Baja Verapaz</t>
-  </si>
-  <si>
-    <t>Alta Verapaz</t>
-  </si>
-  <si>
-    <t>Petén</t>
-  </si>
-  <si>
-    <t>Izabal</t>
-  </si>
-  <si>
-    <t>Zacapa</t>
-  </si>
-  <si>
-    <t>Chiquimula</t>
-  </si>
-  <si>
-    <t>Jalapa</t>
-  </si>
-  <si>
-    <t>Jutiapa</t>
-  </si>
-  <si>
     <t>Urbano</t>
-  </si>
-  <si>
-    <t>Partos con asistencia de personal de salud por área de residencia</t>
-  </si>
-  <si>
-    <t>Acceso a saneamiento mejorado por área de residencia</t>
   </si>
 </sst>
 </file>
@@ -181,12 +100,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -205,6 +118,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -232,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,29 +175,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,15 +193,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,47 +209,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal_33.1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_33.15" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_33.19" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_33.3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal_33.9" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -364,8 +243,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +305,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +329,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>23.8094552580436</v>
@@ -487,19 +366,19 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -507,176 +386,176 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
+      <c r="A2" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>21.561859410522</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>24.5556287030941</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>22.4635742096038</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
+      <c r="A5" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>28.5507053872289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+      <c r="A6" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>21.1427861986365</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
+      <c r="A7" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>27.8356844755631</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
+      <c r="A8" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>31.329756568799</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
+      <c r="A9" s="6" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>31.1569825724861</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
+      <c r="A10" s="6" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>19.4078136192299</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
+      <c r="A11" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>22.6771822105022</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
+      <c r="A12" s="6" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>25.7779050951913</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
+      <c r="A13" s="6" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>28.4651471113151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
+      <c r="A14" s="6" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>33.8957793345277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
+      <c r="A15" s="6" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>33.865046006439</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
+      <c r="A16" s="6" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>25.8936370942381</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
+      <c r="A17" s="6" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>27.5290872090506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
+      <c r="A18" s="6" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>29.5053237094867</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
+      <c r="A19" s="6" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>19.9860438638909</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>29.7390830967842</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
+      <c r="A21" s="6" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>27.8180032136979</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
+      <c r="A22" s="6" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>32.6668840969941</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
+      <c r="A23" s="6" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>35.582135172186</v>
@@ -706,13 +585,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +619,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -781,8 +660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,16 +673,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="5" t="n">
         <v>93.3455623743045</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>94.9930312299258</v>
@@ -837,7 +716,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
@@ -845,8 +724,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,7 +855,6 @@
       <c r="B16" s="5" t="n">
         <v>89.9250493096647</v>
       </c>
-      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -985,7 +863,6 @@
       <c r="B17" s="5" t="n">
         <v>87.8351213600884</v>
       </c>
-      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -994,7 +871,6 @@
       <c r="B18" s="5" t="n">
         <v>94.8544120240042</v>
       </c>
-      <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -1003,7 +879,6 @@
       <c r="B19" s="5" t="n">
         <v>95.9788774087584</v>
       </c>
-      <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -1012,7 +887,6 @@
       <c r="B20" s="5" t="n">
         <v>93.0284806535799</v>
       </c>
-      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -1021,7 +895,6 @@
       <c r="B21" s="5" t="n">
         <v>84.9407038804825</v>
       </c>
-      <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -1030,7 +903,6 @@
       <c r="B22" s="5" t="n">
         <v>89.5783783783784</v>
       </c>
-      <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -1039,7 +911,6 @@
       <c r="B23" s="5" t="n">
         <v>96.1917306789161</v>
       </c>
-      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1065,8 +936,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,7 +965,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -1130,18 +1001,21 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,8 +1070,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,8 +1282,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,56 +1344,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <v>2014</v>
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>62.8847791210672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>62.8847791210672</v>
+        <v>77.2620624117016</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>77.2620624117016</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="n">
         <v>50.2182671610878</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1544,8 +1417,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,8 +1481,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,10 +1693,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,7 +1708,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="8" t="n">
         <v>2000</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -1892,7 +1765,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,14 +1822,14 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,176 +1841,176 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
+      <c r="A2" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>61.5758916699918</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>74.0620628258934</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>75.0413166230547</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
+      <c r="A5" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>48.5142298088577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+      <c r="A6" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>57.4785092417127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
+      <c r="A7" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>75.2561433862291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
+      <c r="A8" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>35.8915545636766</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
+      <c r="A9" s="6" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>31.1873286129415</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
+      <c r="A10" s="6" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>61.3082336896963</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
+      <c r="A11" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>51.8570674177081</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
+      <c r="A12" s="6" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>70.5609657446875</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
+      <c r="A13" s="6" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>50.8627729919123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
+      <c r="A14" s="6" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>36.1579227572554</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
+      <c r="A15" s="6" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>31.5298266344183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
+      <c r="A16" s="6" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>65.0946580344267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
+      <c r="A17" s="6" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>46.9928119130455</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
+      <c r="A18" s="6" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>66.1059181454</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
+      <c r="A19" s="6" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>52.0556449109738</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>69.4036007182026</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
+      <c r="A21" s="6" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>51.2019950124688</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
+      <c r="A22" s="6" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>60.1950588995623</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
+      <c r="A23" s="6" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>73.415068241239</v>
@@ -2167,8 +2040,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2053,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -2188,7 +2061,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -2196,7 +2069,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -2237,8 +2110,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,8 +2174,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,8 +2386,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2399,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -2534,7 +2407,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -2542,7 +2415,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -2550,7 +2423,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -2575,59 +2448,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>58.2753471644979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>58.2753471644979</v>
+        <v>82.984720726574</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>82.984720726574</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="n">
         <v>28.86027954576</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2646,14 +2515,14 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,232 +2725,201 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>5.41912238363988</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>13.2342406876791</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>8.44333469761525</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>23.4100658184306</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="5" t="n">
+        <v>11.2431867413223</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B7" s="5" t="n">
+        <v>12.9266997214875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1</v>
+      <c r="B8" s="5" t="n">
+        <v>39.8709474802113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>5.41912238363988</v>
+        <v>41.0703571705716</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>13.2342406876791</v>
+        <v>16.6681320845628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8.44333469761525</v>
+        <v>19.8254273356371</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>23.4100658184306</v>
+        <v>15.2714997025778</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>11.2431867413223</v>
+        <v>22.0291886930851</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>12.9266997214875</v>
+        <v>28.5544678141619</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>39.8709474802113</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>41.8140230080604</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>41.0703571705716</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>24.6175685267178</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>16.6681320845628</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>53.6236694093442</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.8254273356371</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>20.1779729413572</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>15.2714997025778</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>35.1761173063288</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>22.0291886930851</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>21.3662432558732</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>28.5544678141619</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>41.142645010676</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>41.8140230080604</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>22.3243284282987</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>24.6175685267178</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>53.6236694093442</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>20.1779729413572</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>35.1761173063288</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>21.3662432558732</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>41.142645010676</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>22.3243284282987</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="n">
         <v>24.21854536672</v>
       </c>
-      <c r="F30" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3107,10 +2945,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3138,7 +2976,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -3169,10 +3007,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3231,13 +3069,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3087,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -3257,7 +3095,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -3265,7 +3103,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -3273,7 +3111,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -3306,11 +3144,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3169,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>62.8389047486273</v>
@@ -3373,8 +3211,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,7 +3342,7 @@
       <c r="B16" s="5" t="n">
         <v>62.1564390196228</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -3514,7 +3352,7 @@
         <v>65.6117975073288</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -3524,7 +3362,7 @@
         <v>60.68264798843</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -3534,7 +3372,7 @@
         <v>55.7048650418036</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -3544,7 +3382,7 @@
         <v>67.0744112047156</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -3554,7 +3392,7 @@
         <v>62.1344899229569</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -3564,7 +3402,7 @@
         <v>60.6852713606466</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -3574,7 +3412,7 @@
         <v>52.0904004005403</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3600,8 +3438,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3467,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="B4" s="0" t="n">
